--- a/data_handling/data_processed/qualtrics_experiment_2_github_key.xlsx
+++ b/data_handling/data_processed/qualtrics_experiment_2_github_key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johannes\ownCloud\FlowstoryPhD\flowstory_3\github\attitudes\data_handling\data_processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D554725-9977-46E7-99C5-5C97026FF4A4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAD6943-BA98-4CBE-88F6-C6BA754AF3D3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="5663" xr2:uid="{1B789EB3-3EBF-41F2-903C-DC25117F247B}"/>
   </bookViews>
@@ -723,13 +723,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6706CEFD-6738-49CA-93A4-23CC6ED6143C}">
   <dimension ref="A1:A110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
   </cols>
   <sheetData>
